--- a/export_data.xlsx
+++ b/export_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>No</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>garpu</t>
+  </si>
+  <si>
+    <t>nasi</t>
+  </si>
+  <si>
+    <t>mantap</t>
   </si>
 </sst>
 </file>
@@ -381,7 +387,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -420,13 +426,13 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -447,6 +453,26 @@
       </c>
       <c r="F3">
         <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>2000</v>
+      </c>
+      <c r="F4">
+        <v>44000</v>
       </c>
     </row>
   </sheetData>
